--- a/va_facility_data_2025-02-20/Margaret Cochran Corbin VA Campus - Facility Data.xlsx"; filename*=UTF-8''Margaret%20Cochran%20Corbin%20VA%20Campus%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Margaret Cochran Corbin VA Campus - Facility Data.xlsx"; filename*=UTF-8''Margaret%20Cochran%20Corbin%20VA%20Campus%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R720b0e60d0b64249ad9563ecd70f9c26"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="R0bf8a6d32a5d47c9baa696c3386a6579"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R075c98c5e0ac4a3dae5bc13dd92048d1"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R41821af722994d6ca41639425dc21f73"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R7960b5b9d93d40b1b529cd936dbaa81a"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="Rf8a3a2a3e43245319a317ce0fbc7a52d"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="Ra3c55f50fd6d4324beb3eea4d3122dae"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="R65d707cba0d641caa5f7d6b677a29e92"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R1c903765c533467dab60afd9f373d952"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="Rc5d07bd56c4b4893bb12107132f7ee30"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Rb155207c43d541468c5d091f67a48545"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="R35c56f7facf549b89f27cb9cdeffccd6"/>
   </x:sheets>
 </x:workbook>
 </file>
